--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_A_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B3726-625C-4F5E-8AD4-A307E5CCDBD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A2D5F-54A2-43F7-A689-8859519DA188}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130" firstSheet="6" activeTab="10" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -758,15 +758,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1151,7 @@
       <c r="D4" s="54">
         <v>50</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="74">
         <v>9950</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1304,7 +1303,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CCF54D-A0F0-45B5-99F2-C8991B8FB2C5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,6 +1410,102 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1400,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C4AED1-7695-41FD-B017-5F81A4D64A60}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,6 +1607,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1501,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF1EE1E-49B2-4B79-8417-6EE9F81CF4DA}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD1048576"/>
+      <selection activeCell="A13" sqref="A13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1828,78 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1634,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77C6589-0776-4C78-96A5-E1B41951D631}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,6 +2033,78 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1767,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53116AC8-47E1-4842-8429-36089A1FD4D4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,6 +2228,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1890,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6965B9-C3A5-4A11-AED1-9BC12941E45B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,6 +2455,70 @@
         <v>1405</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2037,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E60BBBD-08B0-4A19-8909-9F921200BF3B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,6 +2604,102 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2122,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C160F-45C4-401F-B0C2-C740AAE778B1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A13" sqref="A13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,6 +2863,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2285,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E73E827-2646-40FC-9068-82FCDC4D90D3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A6" sqref="A6:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,6 +3020,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2386,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE03683-A848-4A1F-923F-80A3E42EDA4B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,6 +3225,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_A_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1E4AF-3C81-403C-8AEF-33A770D87AD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B0436-8497-417C-93D1-B96B147CCC69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130" activeTab="4" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Truck Expense" sheetId="10" r:id="rId10"/>
     <sheet name="Miscellaneous Expense" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -549,26 +549,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -758,9 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1199,7 @@
       <c r="E9" s="25">
         <v>10150</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
@@ -1681,7 +1663,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1702,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>42892</v>
       </c>
       <c r="B3" s="10"/>
@@ -1738,7 +1720,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="26">
         <v>42895</v>
       </c>
       <c r="B4" s="22"/>
@@ -1770,7 +1752,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>42910</v>
       </c>
       <c r="B6" s="30"/>
@@ -1886,7 +1868,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1907,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>42888</v>
       </c>
       <c r="B3" s="10"/>
@@ -1943,7 +1925,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="26">
         <v>42894</v>
       </c>
       <c r="B4" s="22"/>
@@ -1975,7 +1957,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>42903</v>
       </c>
       <c r="B6" s="30"/>
@@ -2293,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6965B9-C3A5-4A11-AED1-9BC12941E45B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2315,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>42916</v>
       </c>
       <c r="B3" s="10"/>
@@ -2349,7 +2331,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="26">
         <v>42916</v>
       </c>
       <c r="B4" s="22"/>
@@ -2381,7 +2363,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>42916</v>
       </c>
       <c r="B6" s="30"/>
